--- a/Excel/pixaroma.xlsx
+++ b/Excel/pixaroma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>hms_format</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>read</t>
         </is>
       </c>
@@ -477,9 +482,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>128983</v>
+        <v>131323</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>0:21:16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -502,9 +512,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>59612</v>
+        <v>60499</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>0:29:56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -527,9 +542,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43377</v>
+        <v>44180</v>
       </c>
       <c r="E4" t="inlineStr">
+        <is>
+          <t>0:23:28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -552,9 +572,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>42256</v>
+        <v>43148</v>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>0:17:26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -577,9 +602,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42202</v>
+        <v>42954</v>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>0:30:46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -602,9 +632,14 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35102</v>
+        <v>35820</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>0:21:37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -627,9 +662,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31228</v>
+        <v>31657</v>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>0:17:24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -652,9 +692,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29510</v>
+        <v>29992</v>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0:26:28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -663,23 +708,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>g8UlYE_HM2M</t>
+          <t>n_x44pTLpak</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ComfyUI Tutorial Series: Ep03 - TXT2IMG </t>
+          <t>ComfyUI Tutorial Series Ep 28: Create Co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>27670</v>
+        <v>28339</v>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>0:34:08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>N</t>
         </is>
@@ -688,23 +738,28 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>n_x44pTLpak</t>
+          <t>g8UlYE_HM2M</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ComfyUI Tutorial Series Ep 28: Create Co</t>
+          <t xml:space="preserve">ComfyUI Tutorial Series: Ep03 - TXT2IMG </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27590</v>
+        <v>28259</v>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>0:20:38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/Excel/pixaroma.xlsx
+++ b/Excel/pixaroma.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>131323</v>
+        <v>147209</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60499</v>
+        <v>66470</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>44180</v>
+        <v>49894</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43148</v>
+        <v>49571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42954</v>
+        <v>48169</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>35820</v>
+        <v>40952</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>31657</v>
+        <v>34726</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29992</v>
+        <v>33289</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -708,25 +708,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>n_x44pTLpak</t>
+          <t>EJ7LhNS67KM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ComfyUI Tutorial Series Ep 28: Create Co</t>
+          <t>ComfyUI Tutorial Series: Ep19 - SDXL &amp; F</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-01-07</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28339</v>
+        <v>32758</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0:34:08</t>
+          <t>0:20:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -738,25 +738,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>g8UlYE_HM2M</t>
+          <t>n_x44pTLpak</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ComfyUI Tutorial Series: Ep03 - TXT2IMG </t>
+          <t>ComfyUI Tutorial Series Ep 28: Create Co</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>28259</v>
+        <v>32722</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0:20:38</t>
+          <t>0:34:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
